--- a/biology/Zoologie/Akalat_à_ailes_rousses/Akalat_à_ailes_rousses.xlsx
+++ b/biology/Zoologie/Akalat_à_ailes_rousses/Akalat_à_ailes_rousses.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_ailes_rousses</t>
+          <t>Akalat_à_ailes_rousses</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Illadopsis rufescens
 L’Akalat à ailes rousses (Illadopsis rufescens) est une espèce de passereau de la famille des Pellorneidae vivant dans une zone restreinte d'Afrique subsaharienne de l'Ouest.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_ailes_rousses</t>
+          <t>Akalat_à_ailes_rousses</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Description et éléments associés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C’est un oiseau d'environ 17 cm de long, trapu, aux couleurs ternes[1],[2]. Il n’y a pas vraiment de dimorphisme sexuel ou entre l’adulte et le juvénile. La gorge est blanche et les parties inférieures gris pâle, souvent avec un peu de brun olive plus foncé sur la poitrine[1],[2]. Les parties supérieures sont marronacées. C’est un oiseau qui évolue souvent par paire, et qui est timide et furtif. Il est souvent trouvé dans les sous-étages de la forêt tropicale à basse et moyenne altitude. Le plus souvent, on le détecte par une voix distinctive : une série de plusieurs sifflements tiu-uuh-uuuh ou ti-tiu-uuh-uuuh[1],[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est un oiseau d'environ 17 cm de long, trapu, aux couleurs ternes,. Il n’y a pas vraiment de dimorphisme sexuel ou entre l’adulte et le juvénile. La gorge est blanche et les parties inférieures gris pâle, souvent avec un peu de brun olive plus foncé sur la poitrine,. Les parties supérieures sont marronacées. C’est un oiseau qui évolue souvent par paire, et qui est timide et furtif. Il est souvent trouvé dans les sous-étages de la forêt tropicale à basse et moyenne altitude. Le plus souvent, on le détecte par une voix distinctive : une série de plusieurs sifflements tiu-uuh-uuuh ou ti-tiu-uuh-uuuh.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_ailes_rousses</t>
+          <t>Akalat_à_ailes_rousses</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cet oiseau vit au Bénin, en Côte d'Ivoire, au Ghana, en Guinée, au Libéria[4], au Sénégal, au Sierra Leone et au Togo[5],[2]. Ses habitats naturels sont les forêts de plaine humides subtropicales ou tropicales et les forêts de montagne humides subtropicales ou tropicales[1],[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet oiseau vit au Bénin, en Côte d'Ivoire, au Ghana, en Guinée, au Libéria, au Sénégal, au Sierra Leone et au Togo,. Ses habitats naturels sont les forêts de plaine humides subtropicales ou tropicales et les forêts de montagne humides subtropicales ou tropicales,.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Akalat_%C3%A0_ailes_rousses</t>
+          <t>Akalat_à_ailes_rousses</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Statut de conservation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est considérée par l'UICN (11/2021) comme presque menacée[6], notamment par la diminution de son habitat (d'origine anthropique).
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est considérée par l'UICN (11/2021) comme presque menacée, notamment par la diminution de son habitat (d'origine anthropique).
 </t>
         </is>
       </c>
